--- a/CASUAL/LA CHO/SIM, JO RITZELL CASTILLO.xlsx
+++ b/CASUAL/LA CHO/SIM, JO RITZELL CASTILLO.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="66">
   <si>
     <t>PERIOD</t>
   </si>
@@ -234,6 +234,12 @@
   </si>
   <si>
     <t>UT(0-0-6)</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>FL(1-0-0)</t>
   </si>
 </sst>
 </file>
@@ -927,7 +933,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -970,7 +976,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1034,7 +1040,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1094,7 +1100,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1160,7 +1166,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1223,7 +1229,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1321,7 +1327,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1380,7 +1386,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1445,7 +1451,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1488,7 +1494,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1563,7 +1569,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1749,7 +1755,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1815,7 +1821,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1873,7 +1879,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1939,7 +1945,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1995,7 +2001,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2070,7 +2076,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2113,7 +2119,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2179,7 +2185,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2235,7 +2241,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2331,7 +2337,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K154" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K155" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2678,12 +2684,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K154"/>
+  <dimension ref="A2:K155"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A105" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A129" activePane="bottomLeft"/>
       <selection activeCell="F2" sqref="F2:G2"/>
-      <selection pane="bottomLeft" activeCell="E120" sqref="E120"/>
+      <selection pane="bottomLeft" activeCell="K137" sqref="K137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2850,7 +2856,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>12.876000000000001</v>
+        <v>15.626000000000001</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2860,7 +2866,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>12.917000000000002</v>
+        <v>16.667000000000002</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5014,13 +5020,15 @@
         <v>45170</v>
       </c>
       <c r="B134" s="20"/>
-      <c r="C134" s="13"/>
+      <c r="C134" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D134" s="39"/>
       <c r="E134" s="9"/>
       <c r="F134" s="20"/>
-      <c r="G134" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G134" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H134" s="39"/>
       <c r="I134" s="9"/>
@@ -5032,13 +5040,15 @@
         <v>45200</v>
       </c>
       <c r="B135" s="20"/>
-      <c r="C135" s="13"/>
+      <c r="C135" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D135" s="39"/>
       <c r="E135" s="9"/>
       <c r="F135" s="20"/>
-      <c r="G135" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G135" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H135" s="39"/>
       <c r="I135" s="9"/>
@@ -5050,13 +5060,15 @@
         <v>45231</v>
       </c>
       <c r="B136" s="20"/>
-      <c r="C136" s="13"/>
+      <c r="C136" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D136" s="39"/>
       <c r="E136" s="9"/>
       <c r="F136" s="20"/>
-      <c r="G136" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G136" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H136" s="39"/>
       <c r="I136" s="9"/>
@@ -5067,9 +5079,13 @@
       <c r="A137" s="41">
         <v>45261</v>
       </c>
-      <c r="B137" s="20"/>
+      <c r="B137" s="20" t="s">
+        <v>65</v>
+      </c>
       <c r="C137" s="13"/>
-      <c r="D137" s="39"/>
+      <c r="D137" s="39">
+        <v>1</v>
+      </c>
       <c r="E137" s="9"/>
       <c r="F137" s="20"/>
       <c r="G137" s="13" t="str">
@@ -5079,10 +5095,14 @@
       <c r="H137" s="39"/>
       <c r="I137" s="9"/>
       <c r="J137" s="11"/>
-      <c r="K137" s="20"/>
+      <c r="K137" s="49">
+        <v>45288</v>
+      </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A138" s="40"/>
+      <c r="A138" s="48" t="s">
+        <v>64</v>
+      </c>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
       <c r="D138" s="39"/>
@@ -5098,7 +5118,9 @@
       <c r="K138" s="20"/>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A139" s="40"/>
+      <c r="A139" s="41">
+        <v>45292</v>
+      </c>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
       <c r="D139" s="39"/>
@@ -5114,7 +5136,9 @@
       <c r="K139" s="20"/>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A140" s="40"/>
+      <c r="A140" s="41">
+        <v>45323</v>
+      </c>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
       <c r="D140" s="39"/>
@@ -5130,7 +5154,9 @@
       <c r="K140" s="20"/>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A141" s="40"/>
+      <c r="A141" s="41">
+        <v>45352</v>
+      </c>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
       <c r="D141" s="39"/>
@@ -5146,7 +5172,9 @@
       <c r="K141" s="20"/>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A142" s="40"/>
+      <c r="A142" s="41">
+        <v>45383</v>
+      </c>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
       <c r="D142" s="39"/>
@@ -5162,7 +5190,9 @@
       <c r="K142" s="20"/>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A143" s="40"/>
+      <c r="A143" s="41">
+        <v>45413</v>
+      </c>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
       <c r="D143" s="39"/>
@@ -5178,7 +5208,9 @@
       <c r="K143" s="20"/>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A144" s="40"/>
+      <c r="A144" s="41">
+        <v>45444</v>
+      </c>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
       <c r="D144" s="39"/>
@@ -5194,7 +5226,9 @@
       <c r="K144" s="20"/>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A145" s="40"/>
+      <c r="A145" s="41">
+        <v>45474</v>
+      </c>
       <c r="B145" s="20"/>
       <c r="C145" s="13"/>
       <c r="D145" s="39"/>
@@ -5210,7 +5244,9 @@
       <c r="K145" s="20"/>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A146" s="40"/>
+      <c r="A146" s="41">
+        <v>45505</v>
+      </c>
       <c r="B146" s="20"/>
       <c r="C146" s="13"/>
       <c r="D146" s="39"/>
@@ -5226,7 +5262,9 @@
       <c r="K146" s="20"/>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A147" s="40"/>
+      <c r="A147" s="41">
+        <v>45536</v>
+      </c>
       <c r="B147" s="20"/>
       <c r="C147" s="13"/>
       <c r="D147" s="39"/>
@@ -5242,7 +5280,9 @@
       <c r="K147" s="20"/>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A148" s="40"/>
+      <c r="A148" s="41">
+        <v>45566</v>
+      </c>
       <c r="B148" s="20"/>
       <c r="C148" s="13"/>
       <c r="D148" s="39"/>
@@ -5258,7 +5298,9 @@
       <c r="K148" s="20"/>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A149" s="40"/>
+      <c r="A149" s="41">
+        <v>45597</v>
+      </c>
       <c r="B149" s="20"/>
       <c r="C149" s="13"/>
       <c r="D149" s="39"/>
@@ -5274,7 +5316,9 @@
       <c r="K149" s="20"/>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A150" s="40"/>
+      <c r="A150" s="41">
+        <v>45627</v>
+      </c>
       <c r="B150" s="20"/>
       <c r="C150" s="13"/>
       <c r="D150" s="39"/>
@@ -5338,20 +5382,36 @@
       <c r="K153" s="20"/>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A154" s="41"/>
-      <c r="B154" s="15"/>
-      <c r="C154" s="42"/>
-      <c r="D154" s="43"/>
+      <c r="A154" s="40"/>
+      <c r="B154" s="20"/>
+      <c r="C154" s="13"/>
+      <c r="D154" s="39"/>
       <c r="E154" s="9"/>
-      <c r="F154" s="15"/>
-      <c r="G154" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H154" s="43"/>
+      <c r="F154" s="20"/>
+      <c r="G154" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H154" s="39"/>
       <c r="I154" s="9"/>
-      <c r="J154" s="12"/>
-      <c r="K154" s="15"/>
+      <c r="J154" s="11"/>
+      <c r="K154" s="20"/>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A155" s="41"/>
+      <c r="B155" s="15"/>
+      <c r="C155" s="42"/>
+      <c r="D155" s="43"/>
+      <c r="E155" s="9"/>
+      <c r="F155" s="15"/>
+      <c r="G155" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H155" s="43"/>
+      <c r="I155" s="9"/>
+      <c r="J155" s="12"/>
+      <c r="K155" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
